--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR_2019@</t>
   </si>
   <si>
     <t xml:space="preserve">QSR_2019@Combo</t>
@@ -541,18 +538,18 @@
   </sheetPr>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,16 +1475,16 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,13 +1492,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -1512,13 +1509,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -1529,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>32</v>
@@ -1546,13 +1543,13 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>34</v>
@@ -1563,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>36</v>
@@ -1580,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>79</v>
@@ -1597,13 +1594,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>81</v>
@@ -1614,16 +1611,16 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,16 +1645,16 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,16 +1662,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,13 +1679,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -1699,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
@@ -1716,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>32</v>
@@ -1733,13 +1730,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>34</v>
@@ -1750,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>36</v>
@@ -1767,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>81</v>
@@ -1784,13 +1781,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>85</v>
@@ -1801,16 +1798,16 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,16 +1815,16 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,16 +1832,16 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1849,13 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>40</v>
@@ -1869,13 +1866,13 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>42</v>
@@ -1886,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>44</v>
@@ -1903,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>46</v>
@@ -1920,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>48</v>
@@ -1937,13 +1934,13 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>50</v>
@@ -1954,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
@@ -1971,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
@@ -1988,13 +1985,13 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>32</v>
@@ -2005,13 +2002,13 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>34</v>
@@ -2022,13 +2019,13 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>36</v>
@@ -2039,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>79</v>
@@ -2056,13 +2053,13 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>81</v>
@@ -2073,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>83</v>
@@ -2090,16 +2087,16 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,13 +2104,13 @@
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>85</v>
@@ -2124,16 +2121,16 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,16 +2138,16 @@
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,16 +2155,16 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="update" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2019-2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2019-1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="146">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -37,6 +39,45 @@
     <t xml:space="preserve">KPI Level 3 Display Text</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipment Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2019@CCH Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR_2019@Combo other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2019@Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2019@Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2019@Combo other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR_2019@Display Burn parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Burn parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRC_2019@CCH Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRC_2019@Any Other Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Other Activation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contract Execution 2019</t>
   </si>
   <si>
@@ -52,9 +93,6 @@
     <t xml:space="preserve">Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipment Execution 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">HS_2019@Displays</t>
   </si>
   <si>
@@ -262,9 +300,6 @@
     <t xml:space="preserve">Visible Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR_2019@CCH Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCH Activation</t>
   </si>
   <si>
@@ -283,9 +318,6 @@
     <t xml:space="preserve">QSR_2019@Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNT_2019@OSA</t>
   </si>
   <si>
@@ -346,6 +378,9 @@
     <t xml:space="preserve">PTR_2019@Customer Cooler Doors</t>
   </si>
   <si>
+    <t xml:space="preserve">PTR_2019@Visible Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTR_2019@CCH Activation</t>
   </si>
   <si>
@@ -367,9 +402,6 @@
     <t xml:space="preserve">Start the day</t>
   </si>
   <si>
-    <t xml:space="preserve">PTR_2019@Shelf Share</t>
-  </si>
-  <si>
     <t xml:space="preserve">PTR_2019@SSD Shelf Share</t>
   </si>
   <si>
@@ -401,9 +433,6 @@
   </si>
   <si>
     <t xml:space="preserve">HRC_2019@Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRC_2019@CCH Activation</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_2019@Menu Activation</t>
@@ -437,9 +466,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,12 +494,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -506,12 +542,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,6 +580,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -536,20 +648,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1021" min="6" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,6 +805,1755 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>0.6175</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>0.6559</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>0.6559</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>0.6559</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>0.6559</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="16.7397959183673"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,1107 +2566,1107 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>0.33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>0.67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="n">
         <v>0.35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <v>0.65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C29" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C41" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" s="6" t="n">
         <v>0.355</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C46" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C47" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C50" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C51" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0.6</v>
+        <v>98</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>0.4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0.333</v>
+        <v>99</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>0.6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C59" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C60" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C61" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>0.667</v>
+        <v>100</v>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C63" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C64" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C65" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C66" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,271 +3674,271 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>0.4</v>
+        <v>104</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>0.667</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>0.6</v>
+        <v>113</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>0.4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>0.667</v>
+        <v>114</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>0.6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="C70" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="C71" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>0.333</v>
+        <v>115</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>0.667</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>0.333</v>
+        <v>115</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>0.667</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C74" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C75" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C76" s="6" t="n">
         <v>0.333</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>0.167</v>
+        <v>119</v>
+      </c>
+      <c r="C77" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>0.167</v>
+        <v>119</v>
+      </c>
+      <c r="C78" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" s="6" t="n">
         <v>0.167</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" s="6" t="n">
         <v>0.167</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" s="6" t="n">
         <v>0.167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" s="6" t="n">
         <v>0.167</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,16 +3946,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>0.4</v>
+        <v>9</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <v>0.167</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,203 +3963,305 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>0.6</v>
+        <v>9</v>
+      </c>
+      <c r="C84" s="6" t="n">
+        <v>0.167</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>32</v>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>34</v>
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>36</v>
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>0.333</v>
+        <v>131</v>
+      </c>
+      <c r="C88" s="6" t="n">
+        <v>0.4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>0.667</v>
+        <v>132</v>
+      </c>
+      <c r="C89" s="6" t="n">
+        <v>0.6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>0.667</v>
+        <v>133</v>
+      </c>
+      <c r="C90" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>0.667</v>
+        <v>133</v>
+      </c>
+      <c r="C91" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>0.667</v>
+        <v>133</v>
+      </c>
+      <c r="C92" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>0.667</v>
+        <v>133</v>
+      </c>
+      <c r="C93" s="6" t="n">
+        <v>0.333</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C94" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C95" s="6" t="n">
         <v>0.667</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>136</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="158">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -198,6 +198,12 @@
     <t xml:space="preserve">Adez Cold Shelf Share</t>
   </si>
   <si>
+    <t xml:space="preserve">HS_2019@Adez Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Shelf Share</t>
+  </si>
+  <si>
     <t xml:space="preserve">CV_2019@OSA</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">CV_2019@Adez Cold Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV_2019@Adez Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">QSR_2019@OSA</t>
@@ -575,7 +584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,7 +609,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,17 +717,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,21 +804,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:107"/>
+  <dimension ref="1:109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1021" min="6" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1021" min="6" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24559,1105 +24580,89 @@
       <c r="AMF23" s="0"/>
       <c r="AMG23" s="0"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
-      <c r="IS27" s="0"/>
-      <c r="IT27" s="0"/>
-      <c r="IU27" s="0"/>
-      <c r="IV27" s="0"/>
-      <c r="IW27" s="0"/>
-      <c r="IX27" s="0"/>
-      <c r="IY27" s="0"/>
-      <c r="IZ27" s="0"/>
-      <c r="JA27" s="0"/>
-      <c r="JB27" s="0"/>
-      <c r="JC27" s="0"/>
-      <c r="JD27" s="0"/>
-      <c r="JE27" s="0"/>
-      <c r="JF27" s="0"/>
-      <c r="JG27" s="0"/>
-      <c r="JH27" s="0"/>
-      <c r="JI27" s="0"/>
-      <c r="JJ27" s="0"/>
-      <c r="JK27" s="0"/>
-      <c r="JL27" s="0"/>
-      <c r="JM27" s="0"/>
-      <c r="JN27" s="0"/>
-      <c r="JO27" s="0"/>
-      <c r="JP27" s="0"/>
-      <c r="JQ27" s="0"/>
-      <c r="JR27" s="0"/>
-      <c r="JS27" s="0"/>
-      <c r="JT27" s="0"/>
-      <c r="JU27" s="0"/>
-      <c r="JV27" s="0"/>
-      <c r="JW27" s="0"/>
-      <c r="JX27" s="0"/>
-      <c r="JY27" s="0"/>
-      <c r="JZ27" s="0"/>
-      <c r="KA27" s="0"/>
-      <c r="KB27" s="0"/>
-      <c r="KC27" s="0"/>
-      <c r="KD27" s="0"/>
-      <c r="KE27" s="0"/>
-      <c r="KF27" s="0"/>
-      <c r="KG27" s="0"/>
-      <c r="KH27" s="0"/>
-      <c r="KI27" s="0"/>
-      <c r="KJ27" s="0"/>
-      <c r="KK27" s="0"/>
-      <c r="KL27" s="0"/>
-      <c r="KM27" s="0"/>
-      <c r="KN27" s="0"/>
-      <c r="KO27" s="0"/>
-      <c r="KP27" s="0"/>
-      <c r="KQ27" s="0"/>
-      <c r="KR27" s="0"/>
-      <c r="KS27" s="0"/>
-      <c r="KT27" s="0"/>
-      <c r="KU27" s="0"/>
-      <c r="KV27" s="0"/>
-      <c r="KW27" s="0"/>
-      <c r="KX27" s="0"/>
-      <c r="KY27" s="0"/>
-      <c r="KZ27" s="0"/>
-      <c r="LA27" s="0"/>
-      <c r="LB27" s="0"/>
-      <c r="LC27" s="0"/>
-      <c r="LD27" s="0"/>
-      <c r="LE27" s="0"/>
-      <c r="LF27" s="0"/>
-      <c r="LG27" s="0"/>
-      <c r="LH27" s="0"/>
-      <c r="LI27" s="0"/>
-      <c r="LJ27" s="0"/>
-      <c r="LK27" s="0"/>
-      <c r="LL27" s="0"/>
-      <c r="LM27" s="0"/>
-      <c r="LN27" s="0"/>
-      <c r="LO27" s="0"/>
-      <c r="LP27" s="0"/>
-      <c r="LQ27" s="0"/>
-      <c r="LR27" s="0"/>
-      <c r="LS27" s="0"/>
-      <c r="LT27" s="0"/>
-      <c r="LU27" s="0"/>
-      <c r="LV27" s="0"/>
-      <c r="LW27" s="0"/>
-      <c r="LX27" s="0"/>
-      <c r="LY27" s="0"/>
-      <c r="LZ27" s="0"/>
-      <c r="MA27" s="0"/>
-      <c r="MB27" s="0"/>
-      <c r="MC27" s="0"/>
-      <c r="MD27" s="0"/>
-      <c r="ME27" s="0"/>
-      <c r="MF27" s="0"/>
-      <c r="MG27" s="0"/>
-      <c r="MH27" s="0"/>
-      <c r="MI27" s="0"/>
-      <c r="MJ27" s="0"/>
-      <c r="MK27" s="0"/>
-      <c r="ML27" s="0"/>
-      <c r="MM27" s="0"/>
-      <c r="MN27" s="0"/>
-      <c r="MO27" s="0"/>
-      <c r="MP27" s="0"/>
-      <c r="MQ27" s="0"/>
-      <c r="MR27" s="0"/>
-      <c r="MS27" s="0"/>
-      <c r="MT27" s="0"/>
-      <c r="MU27" s="0"/>
-      <c r="MV27" s="0"/>
-      <c r="MW27" s="0"/>
-      <c r="MX27" s="0"/>
-      <c r="MY27" s="0"/>
-      <c r="MZ27" s="0"/>
-      <c r="NA27" s="0"/>
-      <c r="NB27" s="0"/>
-      <c r="NC27" s="0"/>
-      <c r="ND27" s="0"/>
-      <c r="NE27" s="0"/>
-      <c r="NF27" s="0"/>
-      <c r="NG27" s="0"/>
-      <c r="NH27" s="0"/>
-      <c r="NI27" s="0"/>
-      <c r="NJ27" s="0"/>
-      <c r="NK27" s="0"/>
-      <c r="NL27" s="0"/>
-      <c r="NM27" s="0"/>
-      <c r="NN27" s="0"/>
-      <c r="NO27" s="0"/>
-      <c r="NP27" s="0"/>
-      <c r="NQ27" s="0"/>
-      <c r="NR27" s="0"/>
-      <c r="NS27" s="0"/>
-      <c r="NT27" s="0"/>
-      <c r="NU27" s="0"/>
-      <c r="NV27" s="0"/>
-      <c r="NW27" s="0"/>
-      <c r="NX27" s="0"/>
-      <c r="NY27" s="0"/>
-      <c r="NZ27" s="0"/>
-      <c r="OA27" s="0"/>
-      <c r="OB27" s="0"/>
-      <c r="OC27" s="0"/>
-      <c r="OD27" s="0"/>
-      <c r="OE27" s="0"/>
-      <c r="OF27" s="0"/>
-      <c r="OG27" s="0"/>
-      <c r="OH27" s="0"/>
-      <c r="OI27" s="0"/>
-      <c r="OJ27" s="0"/>
-      <c r="OK27" s="0"/>
-      <c r="OL27" s="0"/>
-      <c r="OM27" s="0"/>
-      <c r="ON27" s="0"/>
-      <c r="OO27" s="0"/>
-      <c r="OP27" s="0"/>
-      <c r="OQ27" s="0"/>
-      <c r="OR27" s="0"/>
-      <c r="OS27" s="0"/>
-      <c r="OT27" s="0"/>
-      <c r="OU27" s="0"/>
-      <c r="OV27" s="0"/>
-      <c r="OW27" s="0"/>
-      <c r="OX27" s="0"/>
-      <c r="OY27" s="0"/>
-      <c r="OZ27" s="0"/>
-      <c r="PA27" s="0"/>
-      <c r="PB27" s="0"/>
-      <c r="PC27" s="0"/>
-      <c r="PD27" s="0"/>
-      <c r="PE27" s="0"/>
-      <c r="PF27" s="0"/>
-      <c r="PG27" s="0"/>
-      <c r="PH27" s="0"/>
-      <c r="PI27" s="0"/>
-      <c r="PJ27" s="0"/>
-      <c r="PK27" s="0"/>
-      <c r="PL27" s="0"/>
-      <c r="PM27" s="0"/>
-      <c r="PN27" s="0"/>
-      <c r="PO27" s="0"/>
-      <c r="PP27" s="0"/>
-      <c r="PQ27" s="0"/>
-      <c r="PR27" s="0"/>
-      <c r="PS27" s="0"/>
-      <c r="PT27" s="0"/>
-      <c r="PU27" s="0"/>
-      <c r="PV27" s="0"/>
-      <c r="PW27" s="0"/>
-      <c r="PX27" s="0"/>
-      <c r="PY27" s="0"/>
-      <c r="PZ27" s="0"/>
-      <c r="QA27" s="0"/>
-      <c r="QB27" s="0"/>
-      <c r="QC27" s="0"/>
-      <c r="QD27" s="0"/>
-      <c r="QE27" s="0"/>
-      <c r="QF27" s="0"/>
-      <c r="QG27" s="0"/>
-      <c r="QH27" s="0"/>
-      <c r="QI27" s="0"/>
-      <c r="QJ27" s="0"/>
-      <c r="QK27" s="0"/>
-      <c r="QL27" s="0"/>
-      <c r="QM27" s="0"/>
-      <c r="QN27" s="0"/>
-      <c r="QO27" s="0"/>
-      <c r="QP27" s="0"/>
-      <c r="QQ27" s="0"/>
-      <c r="QR27" s="0"/>
-      <c r="QS27" s="0"/>
-      <c r="QT27" s="0"/>
-      <c r="QU27" s="0"/>
-      <c r="QV27" s="0"/>
-      <c r="QW27" s="0"/>
-      <c r="QX27" s="0"/>
-      <c r="QY27" s="0"/>
-      <c r="QZ27" s="0"/>
-      <c r="RA27" s="0"/>
-      <c r="RB27" s="0"/>
-      <c r="RC27" s="0"/>
-      <c r="RD27" s="0"/>
-      <c r="RE27" s="0"/>
-      <c r="RF27" s="0"/>
-      <c r="RG27" s="0"/>
-      <c r="RH27" s="0"/>
-      <c r="RI27" s="0"/>
-      <c r="RJ27" s="0"/>
-      <c r="RK27" s="0"/>
-      <c r="RL27" s="0"/>
-      <c r="RM27" s="0"/>
-      <c r="RN27" s="0"/>
-      <c r="RO27" s="0"/>
-      <c r="RP27" s="0"/>
-      <c r="RQ27" s="0"/>
-      <c r="RR27" s="0"/>
-      <c r="RS27" s="0"/>
-      <c r="RT27" s="0"/>
-      <c r="RU27" s="0"/>
-      <c r="RV27" s="0"/>
-      <c r="RW27" s="0"/>
-      <c r="RX27" s="0"/>
-      <c r="RY27" s="0"/>
-      <c r="RZ27" s="0"/>
-      <c r="SA27" s="0"/>
-      <c r="SB27" s="0"/>
-      <c r="SC27" s="0"/>
-      <c r="SD27" s="0"/>
-      <c r="SE27" s="0"/>
-      <c r="SF27" s="0"/>
-      <c r="SG27" s="0"/>
-      <c r="SH27" s="0"/>
-      <c r="SI27" s="0"/>
-      <c r="SJ27" s="0"/>
-      <c r="SK27" s="0"/>
-      <c r="SL27" s="0"/>
-      <c r="SM27" s="0"/>
-      <c r="SN27" s="0"/>
-      <c r="SO27" s="0"/>
-      <c r="SP27" s="0"/>
-      <c r="SQ27" s="0"/>
-      <c r="SR27" s="0"/>
-      <c r="SS27" s="0"/>
-      <c r="ST27" s="0"/>
-      <c r="SU27" s="0"/>
-      <c r="SV27" s="0"/>
-      <c r="SW27" s="0"/>
-      <c r="SX27" s="0"/>
-      <c r="SY27" s="0"/>
-      <c r="SZ27" s="0"/>
-      <c r="TA27" s="0"/>
-      <c r="TB27" s="0"/>
-      <c r="TC27" s="0"/>
-      <c r="TD27" s="0"/>
-      <c r="TE27" s="0"/>
-      <c r="TF27" s="0"/>
-      <c r="TG27" s="0"/>
-      <c r="TH27" s="0"/>
-      <c r="TI27" s="0"/>
-      <c r="TJ27" s="0"/>
-      <c r="TK27" s="0"/>
-      <c r="TL27" s="0"/>
-      <c r="TM27" s="0"/>
-      <c r="TN27" s="0"/>
-      <c r="TO27" s="0"/>
-      <c r="TP27" s="0"/>
-      <c r="TQ27" s="0"/>
-      <c r="TR27" s="0"/>
-      <c r="TS27" s="0"/>
-      <c r="TT27" s="0"/>
-      <c r="TU27" s="0"/>
-      <c r="TV27" s="0"/>
-      <c r="TW27" s="0"/>
-      <c r="TX27" s="0"/>
-      <c r="TY27" s="0"/>
-      <c r="TZ27" s="0"/>
-      <c r="UA27" s="0"/>
-      <c r="UB27" s="0"/>
-      <c r="UC27" s="0"/>
-      <c r="UD27" s="0"/>
-      <c r="UE27" s="0"/>
-      <c r="UF27" s="0"/>
-      <c r="UG27" s="0"/>
-      <c r="UH27" s="0"/>
-      <c r="UI27" s="0"/>
-      <c r="UJ27" s="0"/>
-      <c r="UK27" s="0"/>
-      <c r="UL27" s="0"/>
-      <c r="UM27" s="0"/>
-      <c r="UN27" s="0"/>
-      <c r="UO27" s="0"/>
-      <c r="UP27" s="0"/>
-      <c r="UQ27" s="0"/>
-      <c r="UR27" s="0"/>
-      <c r="US27" s="0"/>
-      <c r="UT27" s="0"/>
-      <c r="UU27" s="0"/>
-      <c r="UV27" s="0"/>
-      <c r="UW27" s="0"/>
-      <c r="UX27" s="0"/>
-      <c r="UY27" s="0"/>
-      <c r="UZ27" s="0"/>
-      <c r="VA27" s="0"/>
-      <c r="VB27" s="0"/>
-      <c r="VC27" s="0"/>
-      <c r="VD27" s="0"/>
-      <c r="VE27" s="0"/>
-      <c r="VF27" s="0"/>
-      <c r="VG27" s="0"/>
-      <c r="VH27" s="0"/>
-      <c r="VI27" s="0"/>
-      <c r="VJ27" s="0"/>
-      <c r="VK27" s="0"/>
-      <c r="VL27" s="0"/>
-      <c r="VM27" s="0"/>
-      <c r="VN27" s="0"/>
-      <c r="VO27" s="0"/>
-      <c r="VP27" s="0"/>
-      <c r="VQ27" s="0"/>
-      <c r="VR27" s="0"/>
-      <c r="VS27" s="0"/>
-      <c r="VT27" s="0"/>
-      <c r="VU27" s="0"/>
-      <c r="VV27" s="0"/>
-      <c r="VW27" s="0"/>
-      <c r="VX27" s="0"/>
-      <c r="VY27" s="0"/>
-      <c r="VZ27" s="0"/>
-      <c r="WA27" s="0"/>
-      <c r="WB27" s="0"/>
-      <c r="WC27" s="0"/>
-      <c r="WD27" s="0"/>
-      <c r="WE27" s="0"/>
-      <c r="WF27" s="0"/>
-      <c r="WG27" s="0"/>
-      <c r="WH27" s="0"/>
-      <c r="WI27" s="0"/>
-      <c r="WJ27" s="0"/>
-      <c r="WK27" s="0"/>
-      <c r="WL27" s="0"/>
-      <c r="WM27" s="0"/>
-      <c r="WN27" s="0"/>
-      <c r="WO27" s="0"/>
-      <c r="WP27" s="0"/>
-      <c r="WQ27" s="0"/>
-      <c r="WR27" s="0"/>
-      <c r="WS27" s="0"/>
-      <c r="WT27" s="0"/>
-      <c r="WU27" s="0"/>
-      <c r="WV27" s="0"/>
-      <c r="WW27" s="0"/>
-      <c r="WX27" s="0"/>
-      <c r="WY27" s="0"/>
-      <c r="WZ27" s="0"/>
-      <c r="XA27" s="0"/>
-      <c r="XB27" s="0"/>
-      <c r="XC27" s="0"/>
-      <c r="XD27" s="0"/>
-      <c r="XE27" s="0"/>
-      <c r="XF27" s="0"/>
-      <c r="XG27" s="0"/>
-      <c r="XH27" s="0"/>
-      <c r="XI27" s="0"/>
-      <c r="XJ27" s="0"/>
-      <c r="XK27" s="0"/>
-      <c r="XL27" s="0"/>
-      <c r="XM27" s="0"/>
-      <c r="XN27" s="0"/>
-      <c r="XO27" s="0"/>
-      <c r="XP27" s="0"/>
-      <c r="XQ27" s="0"/>
-      <c r="XR27" s="0"/>
-      <c r="XS27" s="0"/>
-      <c r="XT27" s="0"/>
-      <c r="XU27" s="0"/>
-      <c r="XV27" s="0"/>
-      <c r="XW27" s="0"/>
-      <c r="XX27" s="0"/>
-      <c r="XY27" s="0"/>
-      <c r="XZ27" s="0"/>
-      <c r="YA27" s="0"/>
-      <c r="YB27" s="0"/>
-      <c r="YC27" s="0"/>
-      <c r="YD27" s="0"/>
-      <c r="YE27" s="0"/>
-      <c r="YF27" s="0"/>
-      <c r="YG27" s="0"/>
-      <c r="YH27" s="0"/>
-      <c r="YI27" s="0"/>
-      <c r="YJ27" s="0"/>
-      <c r="YK27" s="0"/>
-      <c r="YL27" s="0"/>
-      <c r="YM27" s="0"/>
-      <c r="YN27" s="0"/>
-      <c r="YO27" s="0"/>
-      <c r="YP27" s="0"/>
-      <c r="YQ27" s="0"/>
-      <c r="YR27" s="0"/>
-      <c r="YS27" s="0"/>
-      <c r="YT27" s="0"/>
-      <c r="YU27" s="0"/>
-      <c r="YV27" s="0"/>
-      <c r="YW27" s="0"/>
-      <c r="YX27" s="0"/>
-      <c r="YY27" s="0"/>
-      <c r="YZ27" s="0"/>
-      <c r="ZA27" s="0"/>
-      <c r="ZB27" s="0"/>
-      <c r="ZC27" s="0"/>
-      <c r="ZD27" s="0"/>
-      <c r="ZE27" s="0"/>
-      <c r="ZF27" s="0"/>
-      <c r="ZG27" s="0"/>
-      <c r="ZH27" s="0"/>
-      <c r="ZI27" s="0"/>
-      <c r="ZJ27" s="0"/>
-      <c r="ZK27" s="0"/>
-      <c r="ZL27" s="0"/>
-      <c r="ZM27" s="0"/>
-      <c r="ZN27" s="0"/>
-      <c r="ZO27" s="0"/>
-      <c r="ZP27" s="0"/>
-      <c r="ZQ27" s="0"/>
-      <c r="ZR27" s="0"/>
-      <c r="ZS27" s="0"/>
-      <c r="ZT27" s="0"/>
-      <c r="ZU27" s="0"/>
-      <c r="ZV27" s="0"/>
-      <c r="ZW27" s="0"/>
-      <c r="ZX27" s="0"/>
-      <c r="ZY27" s="0"/>
-      <c r="ZZ27" s="0"/>
-      <c r="AAA27" s="0"/>
-      <c r="AAB27" s="0"/>
-      <c r="AAC27" s="0"/>
-      <c r="AAD27" s="0"/>
-      <c r="AAE27" s="0"/>
-      <c r="AAF27" s="0"/>
-      <c r="AAG27" s="0"/>
-      <c r="AAH27" s="0"/>
-      <c r="AAI27" s="0"/>
-      <c r="AAJ27" s="0"/>
-      <c r="AAK27" s="0"/>
-      <c r="AAL27" s="0"/>
-      <c r="AAM27" s="0"/>
-      <c r="AAN27" s="0"/>
-      <c r="AAO27" s="0"/>
-      <c r="AAP27" s="0"/>
-      <c r="AAQ27" s="0"/>
-      <c r="AAR27" s="0"/>
-      <c r="AAS27" s="0"/>
-      <c r="AAT27" s="0"/>
-      <c r="AAU27" s="0"/>
-      <c r="AAV27" s="0"/>
-      <c r="AAW27" s="0"/>
-      <c r="AAX27" s="0"/>
-      <c r="AAY27" s="0"/>
-      <c r="AAZ27" s="0"/>
-      <c r="ABA27" s="0"/>
-      <c r="ABB27" s="0"/>
-      <c r="ABC27" s="0"/>
-      <c r="ABD27" s="0"/>
-      <c r="ABE27" s="0"/>
-      <c r="ABF27" s="0"/>
-      <c r="ABG27" s="0"/>
-      <c r="ABH27" s="0"/>
-      <c r="ABI27" s="0"/>
-      <c r="ABJ27" s="0"/>
-      <c r="ABK27" s="0"/>
-      <c r="ABL27" s="0"/>
-      <c r="ABM27" s="0"/>
-      <c r="ABN27" s="0"/>
-      <c r="ABO27" s="0"/>
-      <c r="ABP27" s="0"/>
-      <c r="ABQ27" s="0"/>
-      <c r="ABR27" s="0"/>
-      <c r="ABS27" s="0"/>
-      <c r="ABT27" s="0"/>
-      <c r="ABU27" s="0"/>
-      <c r="ABV27" s="0"/>
-      <c r="ABW27" s="0"/>
-      <c r="ABX27" s="0"/>
-      <c r="ABY27" s="0"/>
-      <c r="ABZ27" s="0"/>
-      <c r="ACA27" s="0"/>
-      <c r="ACB27" s="0"/>
-      <c r="ACC27" s="0"/>
-      <c r="ACD27" s="0"/>
-      <c r="ACE27" s="0"/>
-      <c r="ACF27" s="0"/>
-      <c r="ACG27" s="0"/>
-      <c r="ACH27" s="0"/>
-      <c r="ACI27" s="0"/>
-      <c r="ACJ27" s="0"/>
-      <c r="ACK27" s="0"/>
-      <c r="ACL27" s="0"/>
-      <c r="ACM27" s="0"/>
-      <c r="ACN27" s="0"/>
-      <c r="ACO27" s="0"/>
-      <c r="ACP27" s="0"/>
-      <c r="ACQ27" s="0"/>
-      <c r="ACR27" s="0"/>
-      <c r="ACS27" s="0"/>
-      <c r="ACT27" s="0"/>
-      <c r="ACU27" s="0"/>
-      <c r="ACV27" s="0"/>
-      <c r="ACW27" s="0"/>
-      <c r="ACX27" s="0"/>
-      <c r="ACY27" s="0"/>
-      <c r="ACZ27" s="0"/>
-      <c r="ADA27" s="0"/>
-      <c r="ADB27" s="0"/>
-      <c r="ADC27" s="0"/>
-      <c r="ADD27" s="0"/>
-      <c r="ADE27" s="0"/>
-      <c r="ADF27" s="0"/>
-      <c r="ADG27" s="0"/>
-      <c r="ADH27" s="0"/>
-      <c r="ADI27" s="0"/>
-      <c r="ADJ27" s="0"/>
-      <c r="ADK27" s="0"/>
-      <c r="ADL27" s="0"/>
-      <c r="ADM27" s="0"/>
-      <c r="ADN27" s="0"/>
-      <c r="ADO27" s="0"/>
-      <c r="ADP27" s="0"/>
-      <c r="ADQ27" s="0"/>
-      <c r="ADR27" s="0"/>
-      <c r="ADS27" s="0"/>
-      <c r="ADT27" s="0"/>
-      <c r="ADU27" s="0"/>
-      <c r="ADV27" s="0"/>
-      <c r="ADW27" s="0"/>
-      <c r="ADX27" s="0"/>
-      <c r="ADY27" s="0"/>
-      <c r="ADZ27" s="0"/>
-      <c r="AEA27" s="0"/>
-      <c r="AEB27" s="0"/>
-      <c r="AEC27" s="0"/>
-      <c r="AED27" s="0"/>
-      <c r="AEE27" s="0"/>
-      <c r="AEF27" s="0"/>
-      <c r="AEG27" s="0"/>
-      <c r="AEH27" s="0"/>
-      <c r="AEI27" s="0"/>
-      <c r="AEJ27" s="0"/>
-      <c r="AEK27" s="0"/>
-      <c r="AEL27" s="0"/>
-      <c r="AEM27" s="0"/>
-      <c r="AEN27" s="0"/>
-      <c r="AEO27" s="0"/>
-      <c r="AEP27" s="0"/>
-      <c r="AEQ27" s="0"/>
-      <c r="AER27" s="0"/>
-      <c r="AES27" s="0"/>
-      <c r="AET27" s="0"/>
-      <c r="AEU27" s="0"/>
-      <c r="AEV27" s="0"/>
-      <c r="AEW27" s="0"/>
-      <c r="AEX27" s="0"/>
-      <c r="AEY27" s="0"/>
-      <c r="AEZ27" s="0"/>
-      <c r="AFA27" s="0"/>
-      <c r="AFB27" s="0"/>
-      <c r="AFC27" s="0"/>
-      <c r="AFD27" s="0"/>
-      <c r="AFE27" s="0"/>
-      <c r="AFF27" s="0"/>
-      <c r="AFG27" s="0"/>
-      <c r="AFH27" s="0"/>
-      <c r="AFI27" s="0"/>
-      <c r="AFJ27" s="0"/>
-      <c r="AFK27" s="0"/>
-      <c r="AFL27" s="0"/>
-      <c r="AFM27" s="0"/>
-      <c r="AFN27" s="0"/>
-      <c r="AFO27" s="0"/>
-      <c r="AFP27" s="0"/>
-      <c r="AFQ27" s="0"/>
-      <c r="AFR27" s="0"/>
-      <c r="AFS27" s="0"/>
-      <c r="AFT27" s="0"/>
-      <c r="AFU27" s="0"/>
-      <c r="AFV27" s="0"/>
-      <c r="AFW27" s="0"/>
-      <c r="AFX27" s="0"/>
-      <c r="AFY27" s="0"/>
-      <c r="AFZ27" s="0"/>
-      <c r="AGA27" s="0"/>
-      <c r="AGB27" s="0"/>
-      <c r="AGC27" s="0"/>
-      <c r="AGD27" s="0"/>
-      <c r="AGE27" s="0"/>
-      <c r="AGF27" s="0"/>
-      <c r="AGG27" s="0"/>
-      <c r="AGH27" s="0"/>
-      <c r="AGI27" s="0"/>
-      <c r="AGJ27" s="0"/>
-      <c r="AGK27" s="0"/>
-      <c r="AGL27" s="0"/>
-      <c r="AGM27" s="0"/>
-      <c r="AGN27" s="0"/>
-      <c r="AGO27" s="0"/>
-      <c r="AGP27" s="0"/>
-      <c r="AGQ27" s="0"/>
-      <c r="AGR27" s="0"/>
-      <c r="AGS27" s="0"/>
-      <c r="AGT27" s="0"/>
-      <c r="AGU27" s="0"/>
-      <c r="AGV27" s="0"/>
-      <c r="AGW27" s="0"/>
-      <c r="AGX27" s="0"/>
-      <c r="AGY27" s="0"/>
-      <c r="AGZ27" s="0"/>
-      <c r="AHA27" s="0"/>
-      <c r="AHB27" s="0"/>
-      <c r="AHC27" s="0"/>
-      <c r="AHD27" s="0"/>
-      <c r="AHE27" s="0"/>
-      <c r="AHF27" s="0"/>
-      <c r="AHG27" s="0"/>
-      <c r="AHH27" s="0"/>
-      <c r="AHI27" s="0"/>
-      <c r="AHJ27" s="0"/>
-      <c r="AHK27" s="0"/>
-      <c r="AHL27" s="0"/>
-      <c r="AHM27" s="0"/>
-      <c r="AHN27" s="0"/>
-      <c r="AHO27" s="0"/>
-      <c r="AHP27" s="0"/>
-      <c r="AHQ27" s="0"/>
-      <c r="AHR27" s="0"/>
-      <c r="AHS27" s="0"/>
-      <c r="AHT27" s="0"/>
-      <c r="AHU27" s="0"/>
-      <c r="AHV27" s="0"/>
-      <c r="AHW27" s="0"/>
-      <c r="AHX27" s="0"/>
-      <c r="AHY27" s="0"/>
-      <c r="AHZ27" s="0"/>
-      <c r="AIA27" s="0"/>
-      <c r="AIB27" s="0"/>
-      <c r="AIC27" s="0"/>
-      <c r="AID27" s="0"/>
-      <c r="AIE27" s="0"/>
-      <c r="AIF27" s="0"/>
-      <c r="AIG27" s="0"/>
-      <c r="AIH27" s="0"/>
-      <c r="AII27" s="0"/>
-      <c r="AIJ27" s="0"/>
-      <c r="AIK27" s="0"/>
-      <c r="AIL27" s="0"/>
-      <c r="AIM27" s="0"/>
-      <c r="AIN27" s="0"/>
-      <c r="AIO27" s="0"/>
-      <c r="AIP27" s="0"/>
-      <c r="AIQ27" s="0"/>
-      <c r="AIR27" s="0"/>
-      <c r="AIS27" s="0"/>
-      <c r="AIT27" s="0"/>
-      <c r="AIU27" s="0"/>
-      <c r="AIV27" s="0"/>
-      <c r="AIW27" s="0"/>
-      <c r="AIX27" s="0"/>
-      <c r="AIY27" s="0"/>
-      <c r="AIZ27" s="0"/>
-      <c r="AJA27" s="0"/>
-      <c r="AJB27" s="0"/>
-      <c r="AJC27" s="0"/>
-      <c r="AJD27" s="0"/>
-      <c r="AJE27" s="0"/>
-      <c r="AJF27" s="0"/>
-      <c r="AJG27" s="0"/>
-      <c r="AJH27" s="0"/>
-      <c r="AJI27" s="0"/>
-      <c r="AJJ27" s="0"/>
-      <c r="AJK27" s="0"/>
-      <c r="AJL27" s="0"/>
-      <c r="AJM27" s="0"/>
-      <c r="AJN27" s="0"/>
-      <c r="AJO27" s="0"/>
-      <c r="AJP27" s="0"/>
-      <c r="AJQ27" s="0"/>
-      <c r="AJR27" s="0"/>
-      <c r="AJS27" s="0"/>
-      <c r="AJT27" s="0"/>
-      <c r="AJU27" s="0"/>
-      <c r="AJV27" s="0"/>
-      <c r="AJW27" s="0"/>
-      <c r="AJX27" s="0"/>
-      <c r="AJY27" s="0"/>
-      <c r="AJZ27" s="0"/>
-      <c r="AKA27" s="0"/>
-      <c r="AKB27" s="0"/>
-      <c r="AKC27" s="0"/>
-      <c r="AKD27" s="0"/>
-      <c r="AKE27" s="0"/>
-      <c r="AKF27" s="0"/>
-      <c r="AKG27" s="0"/>
-      <c r="AKH27" s="0"/>
-      <c r="AKI27" s="0"/>
-      <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -26678,19 +25683,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.364</v>
+        <v>0.66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -27714,16 +26719,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -28747,16 +27752,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -29780,16 +28785,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -30813,16 +29818,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -31846,16 +30851,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -32879,16 +31884,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -33912,16 +32917,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
@@ -34945,16 +33950,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -35978,16 +34983,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.364</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -37011,16 +36016,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.303</v>
+        <v>0.364</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
@@ -38044,16 +37049,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.303</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -39077,16 +38082,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.303</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
@@ -40110,16 +39115,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>0.303</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -41143,16 +40148,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.333</v>
+        <v>0.303</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -42176,16 +41181,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -43209,16 +42214,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -44242,16 +43247,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -45275,16 +44280,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -46308,16 +45313,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -47336,132 +46341,1148 @@
       <c r="AMF48" s="0"/>
       <c r="AMG48" s="0"/>
     </row>
-    <row r="49" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+      <c r="BG49" s="0"/>
+      <c r="BH49" s="0"/>
+      <c r="BI49" s="0"/>
+      <c r="BJ49" s="0"/>
+      <c r="BK49" s="0"/>
+      <c r="BL49" s="0"/>
+      <c r="BM49" s="0"/>
+      <c r="BN49" s="0"/>
+      <c r="BO49" s="0"/>
+      <c r="BP49" s="0"/>
+      <c r="BQ49" s="0"/>
+      <c r="BR49" s="0"/>
+      <c r="BS49" s="0"/>
+      <c r="BT49" s="0"/>
+      <c r="BU49" s="0"/>
+      <c r="BV49" s="0"/>
+      <c r="BW49" s="0"/>
+      <c r="BX49" s="0"/>
+      <c r="BY49" s="0"/>
+      <c r="BZ49" s="0"/>
+      <c r="CA49" s="0"/>
+      <c r="CB49" s="0"/>
+      <c r="CC49" s="0"/>
+      <c r="CD49" s="0"/>
+      <c r="CE49" s="0"/>
+      <c r="CF49" s="0"/>
+      <c r="CG49" s="0"/>
+      <c r="CH49" s="0"/>
+      <c r="CI49" s="0"/>
+      <c r="CJ49" s="0"/>
+      <c r="CK49" s="0"/>
+      <c r="CL49" s="0"/>
+      <c r="CM49" s="0"/>
+      <c r="CN49" s="0"/>
+      <c r="CO49" s="0"/>
+      <c r="CP49" s="0"/>
+      <c r="CQ49" s="0"/>
+      <c r="CR49" s="0"/>
+      <c r="CS49" s="0"/>
+      <c r="CT49" s="0"/>
+      <c r="CU49" s="0"/>
+      <c r="CV49" s="0"/>
+      <c r="CW49" s="0"/>
+      <c r="CX49" s="0"/>
+      <c r="CY49" s="0"/>
+      <c r="CZ49" s="0"/>
+      <c r="DA49" s="0"/>
+      <c r="DB49" s="0"/>
+      <c r="DC49" s="0"/>
+      <c r="DD49" s="0"/>
+      <c r="DE49" s="0"/>
+      <c r="DF49" s="0"/>
+      <c r="DG49" s="0"/>
+      <c r="DH49" s="0"/>
+      <c r="DI49" s="0"/>
+      <c r="DJ49" s="0"/>
+      <c r="DK49" s="0"/>
+      <c r="DL49" s="0"/>
+      <c r="DM49" s="0"/>
+      <c r="DN49" s="0"/>
+      <c r="DO49" s="0"/>
+      <c r="DP49" s="0"/>
+      <c r="DQ49" s="0"/>
+      <c r="DR49" s="0"/>
+      <c r="DS49" s="0"/>
+      <c r="DT49" s="0"/>
+      <c r="DU49" s="0"/>
+      <c r="DV49" s="0"/>
+      <c r="DW49" s="0"/>
+      <c r="DX49" s="0"/>
+      <c r="DY49" s="0"/>
+      <c r="DZ49" s="0"/>
+      <c r="EA49" s="0"/>
+      <c r="EB49" s="0"/>
+      <c r="EC49" s="0"/>
+      <c r="ED49" s="0"/>
+      <c r="EE49" s="0"/>
+      <c r="EF49" s="0"/>
+      <c r="EG49" s="0"/>
+      <c r="EH49" s="0"/>
+      <c r="EI49" s="0"/>
+      <c r="EJ49" s="0"/>
+      <c r="EK49" s="0"/>
+      <c r="EL49" s="0"/>
+      <c r="EM49" s="0"/>
+      <c r="EN49" s="0"/>
+      <c r="EO49" s="0"/>
+      <c r="EP49" s="0"/>
+      <c r="EQ49" s="0"/>
+      <c r="ER49" s="0"/>
+      <c r="ES49" s="0"/>
+      <c r="ET49" s="0"/>
+      <c r="EU49" s="0"/>
+      <c r="EV49" s="0"/>
+      <c r="EW49" s="0"/>
+      <c r="EX49" s="0"/>
+      <c r="EY49" s="0"/>
+      <c r="EZ49" s="0"/>
+      <c r="FA49" s="0"/>
+      <c r="FB49" s="0"/>
+      <c r="FC49" s="0"/>
+      <c r="FD49" s="0"/>
+      <c r="FE49" s="0"/>
+      <c r="FF49" s="0"/>
+      <c r="FG49" s="0"/>
+      <c r="FH49" s="0"/>
+      <c r="FI49" s="0"/>
+      <c r="FJ49" s="0"/>
+      <c r="FK49" s="0"/>
+      <c r="FL49" s="0"/>
+      <c r="FM49" s="0"/>
+      <c r="FN49" s="0"/>
+      <c r="FO49" s="0"/>
+      <c r="FP49" s="0"/>
+      <c r="FQ49" s="0"/>
+      <c r="FR49" s="0"/>
+      <c r="FS49" s="0"/>
+      <c r="FT49" s="0"/>
+      <c r="FU49" s="0"/>
+      <c r="FV49" s="0"/>
+      <c r="FW49" s="0"/>
+      <c r="FX49" s="0"/>
+      <c r="FY49" s="0"/>
+      <c r="FZ49" s="0"/>
+      <c r="GA49" s="0"/>
+      <c r="GB49" s="0"/>
+      <c r="GC49" s="0"/>
+      <c r="GD49" s="0"/>
+      <c r="GE49" s="0"/>
+      <c r="GF49" s="0"/>
+      <c r="GG49" s="0"/>
+      <c r="GH49" s="0"/>
+      <c r="GI49" s="0"/>
+      <c r="GJ49" s="0"/>
+      <c r="GK49" s="0"/>
+      <c r="GL49" s="0"/>
+      <c r="GM49" s="0"/>
+      <c r="GN49" s="0"/>
+      <c r="GO49" s="0"/>
+      <c r="GP49" s="0"/>
+      <c r="GQ49" s="0"/>
+      <c r="GR49" s="0"/>
+      <c r="GS49" s="0"/>
+      <c r="GT49" s="0"/>
+      <c r="GU49" s="0"/>
+      <c r="GV49" s="0"/>
+      <c r="GW49" s="0"/>
+      <c r="GX49" s="0"/>
+      <c r="GY49" s="0"/>
+      <c r="GZ49" s="0"/>
+      <c r="HA49" s="0"/>
+      <c r="HB49" s="0"/>
+      <c r="HC49" s="0"/>
+      <c r="HD49" s="0"/>
+      <c r="HE49" s="0"/>
+      <c r="HF49" s="0"/>
+      <c r="HG49" s="0"/>
+      <c r="HH49" s="0"/>
+      <c r="HI49" s="0"/>
+      <c r="HJ49" s="0"/>
+      <c r="HK49" s="0"/>
+      <c r="HL49" s="0"/>
+      <c r="HM49" s="0"/>
+      <c r="HN49" s="0"/>
+      <c r="HO49" s="0"/>
+      <c r="HP49" s="0"/>
+      <c r="HQ49" s="0"/>
+      <c r="HR49" s="0"/>
+      <c r="HS49" s="0"/>
+      <c r="HT49" s="0"/>
+      <c r="HU49" s="0"/>
+      <c r="HV49" s="0"/>
+      <c r="HW49" s="0"/>
+      <c r="HX49" s="0"/>
+      <c r="HY49" s="0"/>
+      <c r="HZ49" s="0"/>
+      <c r="IA49" s="0"/>
+      <c r="IB49" s="0"/>
+      <c r="IC49" s="0"/>
+      <c r="ID49" s="0"/>
+      <c r="IE49" s="0"/>
+      <c r="IF49" s="0"/>
+      <c r="IG49" s="0"/>
+      <c r="IH49" s="0"/>
+      <c r="II49" s="0"/>
+      <c r="IJ49" s="0"/>
+      <c r="IK49" s="0"/>
+      <c r="IL49" s="0"/>
+      <c r="IM49" s="0"/>
+      <c r="IN49" s="0"/>
+      <c r="IO49" s="0"/>
+      <c r="IP49" s="0"/>
+      <c r="IQ49" s="0"/>
+      <c r="IR49" s="0"/>
+      <c r="IS49" s="0"/>
+      <c r="IT49" s="0"/>
+      <c r="IU49" s="0"/>
+      <c r="IV49" s="0"/>
+      <c r="IW49" s="0"/>
+      <c r="IX49" s="0"/>
+      <c r="IY49" s="0"/>
+      <c r="IZ49" s="0"/>
+      <c r="JA49" s="0"/>
+      <c r="JB49" s="0"/>
+      <c r="JC49" s="0"/>
+      <c r="JD49" s="0"/>
+      <c r="JE49" s="0"/>
+      <c r="JF49" s="0"/>
+      <c r="JG49" s="0"/>
+      <c r="JH49" s="0"/>
+      <c r="JI49" s="0"/>
+      <c r="JJ49" s="0"/>
+      <c r="JK49" s="0"/>
+      <c r="JL49" s="0"/>
+      <c r="JM49" s="0"/>
+      <c r="JN49" s="0"/>
+      <c r="JO49" s="0"/>
+      <c r="JP49" s="0"/>
+      <c r="JQ49" s="0"/>
+      <c r="JR49" s="0"/>
+      <c r="JS49" s="0"/>
+      <c r="JT49" s="0"/>
+      <c r="JU49" s="0"/>
+      <c r="JV49" s="0"/>
+      <c r="JW49" s="0"/>
+      <c r="JX49" s="0"/>
+      <c r="JY49" s="0"/>
+      <c r="JZ49" s="0"/>
+      <c r="KA49" s="0"/>
+      <c r="KB49" s="0"/>
+      <c r="KC49" s="0"/>
+      <c r="KD49" s="0"/>
+      <c r="KE49" s="0"/>
+      <c r="KF49" s="0"/>
+      <c r="KG49" s="0"/>
+      <c r="KH49" s="0"/>
+      <c r="KI49" s="0"/>
+      <c r="KJ49" s="0"/>
+      <c r="KK49" s="0"/>
+      <c r="KL49" s="0"/>
+      <c r="KM49" s="0"/>
+      <c r="KN49" s="0"/>
+      <c r="KO49" s="0"/>
+      <c r="KP49" s="0"/>
+      <c r="KQ49" s="0"/>
+      <c r="KR49" s="0"/>
+      <c r="KS49" s="0"/>
+      <c r="KT49" s="0"/>
+      <c r="KU49" s="0"/>
+      <c r="KV49" s="0"/>
+      <c r="KW49" s="0"/>
+      <c r="KX49" s="0"/>
+      <c r="KY49" s="0"/>
+      <c r="KZ49" s="0"/>
+      <c r="LA49" s="0"/>
+      <c r="LB49" s="0"/>
+      <c r="LC49" s="0"/>
+      <c r="LD49" s="0"/>
+      <c r="LE49" s="0"/>
+      <c r="LF49" s="0"/>
+      <c r="LG49" s="0"/>
+      <c r="LH49" s="0"/>
+      <c r="LI49" s="0"/>
+      <c r="LJ49" s="0"/>
+      <c r="LK49" s="0"/>
+      <c r="LL49" s="0"/>
+      <c r="LM49" s="0"/>
+      <c r="LN49" s="0"/>
+      <c r="LO49" s="0"/>
+      <c r="LP49" s="0"/>
+      <c r="LQ49" s="0"/>
+      <c r="LR49" s="0"/>
+      <c r="LS49" s="0"/>
+      <c r="LT49" s="0"/>
+      <c r="LU49" s="0"/>
+      <c r="LV49" s="0"/>
+      <c r="LW49" s="0"/>
+      <c r="LX49" s="0"/>
+      <c r="LY49" s="0"/>
+      <c r="LZ49" s="0"/>
+      <c r="MA49" s="0"/>
+      <c r="MB49" s="0"/>
+      <c r="MC49" s="0"/>
+      <c r="MD49" s="0"/>
+      <c r="ME49" s="0"/>
+      <c r="MF49" s="0"/>
+      <c r="MG49" s="0"/>
+      <c r="MH49" s="0"/>
+      <c r="MI49" s="0"/>
+      <c r="MJ49" s="0"/>
+      <c r="MK49" s="0"/>
+      <c r="ML49" s="0"/>
+      <c r="MM49" s="0"/>
+      <c r="MN49" s="0"/>
+      <c r="MO49" s="0"/>
+      <c r="MP49" s="0"/>
+      <c r="MQ49" s="0"/>
+      <c r="MR49" s="0"/>
+      <c r="MS49" s="0"/>
+      <c r="MT49" s="0"/>
+      <c r="MU49" s="0"/>
+      <c r="MV49" s="0"/>
+      <c r="MW49" s="0"/>
+      <c r="MX49" s="0"/>
+      <c r="MY49" s="0"/>
+      <c r="MZ49" s="0"/>
+      <c r="NA49" s="0"/>
+      <c r="NB49" s="0"/>
+      <c r="NC49" s="0"/>
+      <c r="ND49" s="0"/>
+      <c r="NE49" s="0"/>
+      <c r="NF49" s="0"/>
+      <c r="NG49" s="0"/>
+      <c r="NH49" s="0"/>
+      <c r="NI49" s="0"/>
+      <c r="NJ49" s="0"/>
+      <c r="NK49" s="0"/>
+      <c r="NL49" s="0"/>
+      <c r="NM49" s="0"/>
+      <c r="NN49" s="0"/>
+      <c r="NO49" s="0"/>
+      <c r="NP49" s="0"/>
+      <c r="NQ49" s="0"/>
+      <c r="NR49" s="0"/>
+      <c r="NS49" s="0"/>
+      <c r="NT49" s="0"/>
+      <c r="NU49" s="0"/>
+      <c r="NV49" s="0"/>
+      <c r="NW49" s="0"/>
+      <c r="NX49" s="0"/>
+      <c r="NY49" s="0"/>
+      <c r="NZ49" s="0"/>
+      <c r="OA49" s="0"/>
+      <c r="OB49" s="0"/>
+      <c r="OC49" s="0"/>
+      <c r="OD49" s="0"/>
+      <c r="OE49" s="0"/>
+      <c r="OF49" s="0"/>
+      <c r="OG49" s="0"/>
+      <c r="OH49" s="0"/>
+      <c r="OI49" s="0"/>
+      <c r="OJ49" s="0"/>
+      <c r="OK49" s="0"/>
+      <c r="OL49" s="0"/>
+      <c r="OM49" s="0"/>
+      <c r="ON49" s="0"/>
+      <c r="OO49" s="0"/>
+      <c r="OP49" s="0"/>
+      <c r="OQ49" s="0"/>
+      <c r="OR49" s="0"/>
+      <c r="OS49" s="0"/>
+      <c r="OT49" s="0"/>
+      <c r="OU49" s="0"/>
+      <c r="OV49" s="0"/>
+      <c r="OW49" s="0"/>
+      <c r="OX49" s="0"/>
+      <c r="OY49" s="0"/>
+      <c r="OZ49" s="0"/>
+      <c r="PA49" s="0"/>
+      <c r="PB49" s="0"/>
+      <c r="PC49" s="0"/>
+      <c r="PD49" s="0"/>
+      <c r="PE49" s="0"/>
+      <c r="PF49" s="0"/>
+      <c r="PG49" s="0"/>
+      <c r="PH49" s="0"/>
+      <c r="PI49" s="0"/>
+      <c r="PJ49" s="0"/>
+      <c r="PK49" s="0"/>
+      <c r="PL49" s="0"/>
+      <c r="PM49" s="0"/>
+      <c r="PN49" s="0"/>
+      <c r="PO49" s="0"/>
+      <c r="PP49" s="0"/>
+      <c r="PQ49" s="0"/>
+      <c r="PR49" s="0"/>
+      <c r="PS49" s="0"/>
+      <c r="PT49" s="0"/>
+      <c r="PU49" s="0"/>
+      <c r="PV49" s="0"/>
+      <c r="PW49" s="0"/>
+      <c r="PX49" s="0"/>
+      <c r="PY49" s="0"/>
+      <c r="PZ49" s="0"/>
+      <c r="QA49" s="0"/>
+      <c r="QB49" s="0"/>
+      <c r="QC49" s="0"/>
+      <c r="QD49" s="0"/>
+      <c r="QE49" s="0"/>
+      <c r="QF49" s="0"/>
+      <c r="QG49" s="0"/>
+      <c r="QH49" s="0"/>
+      <c r="QI49" s="0"/>
+      <c r="QJ49" s="0"/>
+      <c r="QK49" s="0"/>
+      <c r="QL49" s="0"/>
+      <c r="QM49" s="0"/>
+      <c r="QN49" s="0"/>
+      <c r="QO49" s="0"/>
+      <c r="QP49" s="0"/>
+      <c r="QQ49" s="0"/>
+      <c r="QR49" s="0"/>
+      <c r="QS49" s="0"/>
+      <c r="QT49" s="0"/>
+      <c r="QU49" s="0"/>
+      <c r="QV49" s="0"/>
+      <c r="QW49" s="0"/>
+      <c r="QX49" s="0"/>
+      <c r="QY49" s="0"/>
+      <c r="QZ49" s="0"/>
+      <c r="RA49" s="0"/>
+      <c r="RB49" s="0"/>
+      <c r="RC49" s="0"/>
+      <c r="RD49" s="0"/>
+      <c r="RE49" s="0"/>
+      <c r="RF49" s="0"/>
+      <c r="RG49" s="0"/>
+      <c r="RH49" s="0"/>
+      <c r="RI49" s="0"/>
+      <c r="RJ49" s="0"/>
+      <c r="RK49" s="0"/>
+      <c r="RL49" s="0"/>
+      <c r="RM49" s="0"/>
+      <c r="RN49" s="0"/>
+      <c r="RO49" s="0"/>
+      <c r="RP49" s="0"/>
+      <c r="RQ49" s="0"/>
+      <c r="RR49" s="0"/>
+      <c r="RS49" s="0"/>
+      <c r="RT49" s="0"/>
+      <c r="RU49" s="0"/>
+      <c r="RV49" s="0"/>
+      <c r="RW49" s="0"/>
+      <c r="RX49" s="0"/>
+      <c r="RY49" s="0"/>
+      <c r="RZ49" s="0"/>
+      <c r="SA49" s="0"/>
+      <c r="SB49" s="0"/>
+      <c r="SC49" s="0"/>
+      <c r="SD49" s="0"/>
+      <c r="SE49" s="0"/>
+      <c r="SF49" s="0"/>
+      <c r="SG49" s="0"/>
+      <c r="SH49" s="0"/>
+      <c r="SI49" s="0"/>
+      <c r="SJ49" s="0"/>
+      <c r="SK49" s="0"/>
+      <c r="SL49" s="0"/>
+      <c r="SM49" s="0"/>
+      <c r="SN49" s="0"/>
+      <c r="SO49" s="0"/>
+      <c r="SP49" s="0"/>
+      <c r="SQ49" s="0"/>
+      <c r="SR49" s="0"/>
+      <c r="SS49" s="0"/>
+      <c r="ST49" s="0"/>
+      <c r="SU49" s="0"/>
+      <c r="SV49" s="0"/>
+      <c r="SW49" s="0"/>
+      <c r="SX49" s="0"/>
+      <c r="SY49" s="0"/>
+      <c r="SZ49" s="0"/>
+      <c r="TA49" s="0"/>
+      <c r="TB49" s="0"/>
+      <c r="TC49" s="0"/>
+      <c r="TD49" s="0"/>
+      <c r="TE49" s="0"/>
+      <c r="TF49" s="0"/>
+      <c r="TG49" s="0"/>
+      <c r="TH49" s="0"/>
+      <c r="TI49" s="0"/>
+      <c r="TJ49" s="0"/>
+      <c r="TK49" s="0"/>
+      <c r="TL49" s="0"/>
+      <c r="TM49" s="0"/>
+      <c r="TN49" s="0"/>
+      <c r="TO49" s="0"/>
+      <c r="TP49" s="0"/>
+      <c r="TQ49" s="0"/>
+      <c r="TR49" s="0"/>
+      <c r="TS49" s="0"/>
+      <c r="TT49" s="0"/>
+      <c r="TU49" s="0"/>
+      <c r="TV49" s="0"/>
+      <c r="TW49" s="0"/>
+      <c r="TX49" s="0"/>
+      <c r="TY49" s="0"/>
+      <c r="TZ49" s="0"/>
+      <c r="UA49" s="0"/>
+      <c r="UB49" s="0"/>
+      <c r="UC49" s="0"/>
+      <c r="UD49" s="0"/>
+      <c r="UE49" s="0"/>
+      <c r="UF49" s="0"/>
+      <c r="UG49" s="0"/>
+      <c r="UH49" s="0"/>
+      <c r="UI49" s="0"/>
+      <c r="UJ49" s="0"/>
+      <c r="UK49" s="0"/>
+      <c r="UL49" s="0"/>
+      <c r="UM49" s="0"/>
+      <c r="UN49" s="0"/>
+      <c r="UO49" s="0"/>
+      <c r="UP49" s="0"/>
+      <c r="UQ49" s="0"/>
+      <c r="UR49" s="0"/>
+      <c r="US49" s="0"/>
+      <c r="UT49" s="0"/>
+      <c r="UU49" s="0"/>
+      <c r="UV49" s="0"/>
+      <c r="UW49" s="0"/>
+      <c r="UX49" s="0"/>
+      <c r="UY49" s="0"/>
+      <c r="UZ49" s="0"/>
+      <c r="VA49" s="0"/>
+      <c r="VB49" s="0"/>
+      <c r="VC49" s="0"/>
+      <c r="VD49" s="0"/>
+      <c r="VE49" s="0"/>
+      <c r="VF49" s="0"/>
+      <c r="VG49" s="0"/>
+      <c r="VH49" s="0"/>
+      <c r="VI49" s="0"/>
+      <c r="VJ49" s="0"/>
+      <c r="VK49" s="0"/>
+      <c r="VL49" s="0"/>
+      <c r="VM49" s="0"/>
+      <c r="VN49" s="0"/>
+      <c r="VO49" s="0"/>
+      <c r="VP49" s="0"/>
+      <c r="VQ49" s="0"/>
+      <c r="VR49" s="0"/>
+      <c r="VS49" s="0"/>
+      <c r="VT49" s="0"/>
+      <c r="VU49" s="0"/>
+      <c r="VV49" s="0"/>
+      <c r="VW49" s="0"/>
+      <c r="VX49" s="0"/>
+      <c r="VY49" s="0"/>
+      <c r="VZ49" s="0"/>
+      <c r="WA49" s="0"/>
+      <c r="WB49" s="0"/>
+      <c r="WC49" s="0"/>
+      <c r="WD49" s="0"/>
+      <c r="WE49" s="0"/>
+      <c r="WF49" s="0"/>
+      <c r="WG49" s="0"/>
+      <c r="WH49" s="0"/>
+      <c r="WI49" s="0"/>
+      <c r="WJ49" s="0"/>
+      <c r="WK49" s="0"/>
+      <c r="WL49" s="0"/>
+      <c r="WM49" s="0"/>
+      <c r="WN49" s="0"/>
+      <c r="WO49" s="0"/>
+      <c r="WP49" s="0"/>
+      <c r="WQ49" s="0"/>
+      <c r="WR49" s="0"/>
+      <c r="WS49" s="0"/>
+      <c r="WT49" s="0"/>
+      <c r="WU49" s="0"/>
+      <c r="WV49" s="0"/>
+      <c r="WW49" s="0"/>
+      <c r="WX49" s="0"/>
+      <c r="WY49" s="0"/>
+      <c r="WZ49" s="0"/>
+      <c r="XA49" s="0"/>
+      <c r="XB49" s="0"/>
+      <c r="XC49" s="0"/>
+      <c r="XD49" s="0"/>
+      <c r="XE49" s="0"/>
+      <c r="XF49" s="0"/>
+      <c r="XG49" s="0"/>
+      <c r="XH49" s="0"/>
+      <c r="XI49" s="0"/>
+      <c r="XJ49" s="0"/>
+      <c r="XK49" s="0"/>
+      <c r="XL49" s="0"/>
+      <c r="XM49" s="0"/>
+      <c r="XN49" s="0"/>
+      <c r="XO49" s="0"/>
+      <c r="XP49" s="0"/>
+      <c r="XQ49" s="0"/>
+      <c r="XR49" s="0"/>
+      <c r="XS49" s="0"/>
+      <c r="XT49" s="0"/>
+      <c r="XU49" s="0"/>
+      <c r="XV49" s="0"/>
+      <c r="XW49" s="0"/>
+      <c r="XX49" s="0"/>
+      <c r="XY49" s="0"/>
+      <c r="XZ49" s="0"/>
+      <c r="YA49" s="0"/>
+      <c r="YB49" s="0"/>
+      <c r="YC49" s="0"/>
+      <c r="YD49" s="0"/>
+      <c r="YE49" s="0"/>
+      <c r="YF49" s="0"/>
+      <c r="YG49" s="0"/>
+      <c r="YH49" s="0"/>
+      <c r="YI49" s="0"/>
+      <c r="YJ49" s="0"/>
+      <c r="YK49" s="0"/>
+      <c r="YL49" s="0"/>
+      <c r="YM49" s="0"/>
+      <c r="YN49" s="0"/>
+      <c r="YO49" s="0"/>
+      <c r="YP49" s="0"/>
+      <c r="YQ49" s="0"/>
+      <c r="YR49" s="0"/>
+      <c r="YS49" s="0"/>
+      <c r="YT49" s="0"/>
+      <c r="YU49" s="0"/>
+      <c r="YV49" s="0"/>
+      <c r="YW49" s="0"/>
+      <c r="YX49" s="0"/>
+      <c r="YY49" s="0"/>
+      <c r="YZ49" s="0"/>
+      <c r="ZA49" s="0"/>
+      <c r="ZB49" s="0"/>
+      <c r="ZC49" s="0"/>
+      <c r="ZD49" s="0"/>
+      <c r="ZE49" s="0"/>
+      <c r="ZF49" s="0"/>
+      <c r="ZG49" s="0"/>
+      <c r="ZH49" s="0"/>
+      <c r="ZI49" s="0"/>
+      <c r="ZJ49" s="0"/>
+      <c r="ZK49" s="0"/>
+      <c r="ZL49" s="0"/>
+      <c r="ZM49" s="0"/>
+      <c r="ZN49" s="0"/>
+      <c r="ZO49" s="0"/>
+      <c r="ZP49" s="0"/>
+      <c r="ZQ49" s="0"/>
+      <c r="ZR49" s="0"/>
+      <c r="ZS49" s="0"/>
+      <c r="ZT49" s="0"/>
+      <c r="ZU49" s="0"/>
+      <c r="ZV49" s="0"/>
+      <c r="ZW49" s="0"/>
+      <c r="ZX49" s="0"/>
+      <c r="ZY49" s="0"/>
+      <c r="ZZ49" s="0"/>
+      <c r="AAA49" s="0"/>
+      <c r="AAB49" s="0"/>
+      <c r="AAC49" s="0"/>
+      <c r="AAD49" s="0"/>
+      <c r="AAE49" s="0"/>
+      <c r="AAF49" s="0"/>
+      <c r="AAG49" s="0"/>
+      <c r="AAH49" s="0"/>
+      <c r="AAI49" s="0"/>
+      <c r="AAJ49" s="0"/>
+      <c r="AAK49" s="0"/>
+      <c r="AAL49" s="0"/>
+      <c r="AAM49" s="0"/>
+      <c r="AAN49" s="0"/>
+      <c r="AAO49" s="0"/>
+      <c r="AAP49" s="0"/>
+      <c r="AAQ49" s="0"/>
+      <c r="AAR49" s="0"/>
+      <c r="AAS49" s="0"/>
+      <c r="AAT49" s="0"/>
+      <c r="AAU49" s="0"/>
+      <c r="AAV49" s="0"/>
+      <c r="AAW49" s="0"/>
+      <c r="AAX49" s="0"/>
+      <c r="AAY49" s="0"/>
+      <c r="AAZ49" s="0"/>
+      <c r="ABA49" s="0"/>
+      <c r="ABB49" s="0"/>
+      <c r="ABC49" s="0"/>
+      <c r="ABD49" s="0"/>
+      <c r="ABE49" s="0"/>
+      <c r="ABF49" s="0"/>
+      <c r="ABG49" s="0"/>
+      <c r="ABH49" s="0"/>
+      <c r="ABI49" s="0"/>
+      <c r="ABJ49" s="0"/>
+      <c r="ABK49" s="0"/>
+      <c r="ABL49" s="0"/>
+      <c r="ABM49" s="0"/>
+      <c r="ABN49" s="0"/>
+      <c r="ABO49" s="0"/>
+      <c r="ABP49" s="0"/>
+      <c r="ABQ49" s="0"/>
+      <c r="ABR49" s="0"/>
+      <c r="ABS49" s="0"/>
+      <c r="ABT49" s="0"/>
+      <c r="ABU49" s="0"/>
+      <c r="ABV49" s="0"/>
+      <c r="ABW49" s="0"/>
+      <c r="ABX49" s="0"/>
+      <c r="ABY49" s="0"/>
+      <c r="ABZ49" s="0"/>
+      <c r="ACA49" s="0"/>
+      <c r="ACB49" s="0"/>
+      <c r="ACC49" s="0"/>
+      <c r="ACD49" s="0"/>
+      <c r="ACE49" s="0"/>
+      <c r="ACF49" s="0"/>
+      <c r="ACG49" s="0"/>
+      <c r="ACH49" s="0"/>
+      <c r="ACI49" s="0"/>
+      <c r="ACJ49" s="0"/>
+      <c r="ACK49" s="0"/>
+      <c r="ACL49" s="0"/>
+      <c r="ACM49" s="0"/>
+      <c r="ACN49" s="0"/>
+      <c r="ACO49" s="0"/>
+      <c r="ACP49" s="0"/>
+      <c r="ACQ49" s="0"/>
+      <c r="ACR49" s="0"/>
+      <c r="ACS49" s="0"/>
+      <c r="ACT49" s="0"/>
+      <c r="ACU49" s="0"/>
+      <c r="ACV49" s="0"/>
+      <c r="ACW49" s="0"/>
+      <c r="ACX49" s="0"/>
+      <c r="ACY49" s="0"/>
+      <c r="ACZ49" s="0"/>
+      <c r="ADA49" s="0"/>
+      <c r="ADB49" s="0"/>
+      <c r="ADC49" s="0"/>
+      <c r="ADD49" s="0"/>
+      <c r="ADE49" s="0"/>
+      <c r="ADF49" s="0"/>
+      <c r="ADG49" s="0"/>
+      <c r="ADH49" s="0"/>
+      <c r="ADI49" s="0"/>
+      <c r="ADJ49" s="0"/>
+      <c r="ADK49" s="0"/>
+      <c r="ADL49" s="0"/>
+      <c r="ADM49" s="0"/>
+      <c r="ADN49" s="0"/>
+      <c r="ADO49" s="0"/>
+      <c r="ADP49" s="0"/>
+      <c r="ADQ49" s="0"/>
+      <c r="ADR49" s="0"/>
+      <c r="ADS49" s="0"/>
+      <c r="ADT49" s="0"/>
+      <c r="ADU49" s="0"/>
+      <c r="ADV49" s="0"/>
+      <c r="ADW49" s="0"/>
+      <c r="ADX49" s="0"/>
+      <c r="ADY49" s="0"/>
+      <c r="ADZ49" s="0"/>
+      <c r="AEA49" s="0"/>
+      <c r="AEB49" s="0"/>
+      <c r="AEC49" s="0"/>
+      <c r="AED49" s="0"/>
+      <c r="AEE49" s="0"/>
+      <c r="AEF49" s="0"/>
+      <c r="AEG49" s="0"/>
+      <c r="AEH49" s="0"/>
+      <c r="AEI49" s="0"/>
+      <c r="AEJ49" s="0"/>
+      <c r="AEK49" s="0"/>
+      <c r="AEL49" s="0"/>
+      <c r="AEM49" s="0"/>
+      <c r="AEN49" s="0"/>
+      <c r="AEO49" s="0"/>
+      <c r="AEP49" s="0"/>
+      <c r="AEQ49" s="0"/>
+      <c r="AER49" s="0"/>
+      <c r="AES49" s="0"/>
+      <c r="AET49" s="0"/>
+      <c r="AEU49" s="0"/>
+      <c r="AEV49" s="0"/>
+      <c r="AEW49" s="0"/>
+      <c r="AEX49" s="0"/>
+      <c r="AEY49" s="0"/>
+      <c r="AEZ49" s="0"/>
+      <c r="AFA49" s="0"/>
+      <c r="AFB49" s="0"/>
+      <c r="AFC49" s="0"/>
+      <c r="AFD49" s="0"/>
+      <c r="AFE49" s="0"/>
+      <c r="AFF49" s="0"/>
+      <c r="AFG49" s="0"/>
+      <c r="AFH49" s="0"/>
+      <c r="AFI49" s="0"/>
+      <c r="AFJ49" s="0"/>
+      <c r="AFK49" s="0"/>
+      <c r="AFL49" s="0"/>
+      <c r="AFM49" s="0"/>
+      <c r="AFN49" s="0"/>
+      <c r="AFO49" s="0"/>
+      <c r="AFP49" s="0"/>
+      <c r="AFQ49" s="0"/>
+      <c r="AFR49" s="0"/>
+      <c r="AFS49" s="0"/>
+      <c r="AFT49" s="0"/>
+      <c r="AFU49" s="0"/>
+      <c r="AFV49" s="0"/>
+      <c r="AFW49" s="0"/>
+      <c r="AFX49" s="0"/>
+      <c r="AFY49" s="0"/>
+      <c r="AFZ49" s="0"/>
+      <c r="AGA49" s="0"/>
+      <c r="AGB49" s="0"/>
+      <c r="AGC49" s="0"/>
+      <c r="AGD49" s="0"/>
+      <c r="AGE49" s="0"/>
+      <c r="AGF49" s="0"/>
+      <c r="AGG49" s="0"/>
+      <c r="AGH49" s="0"/>
+      <c r="AGI49" s="0"/>
+      <c r="AGJ49" s="0"/>
+      <c r="AGK49" s="0"/>
+      <c r="AGL49" s="0"/>
+      <c r="AGM49" s="0"/>
+      <c r="AGN49" s="0"/>
+      <c r="AGO49" s="0"/>
+      <c r="AGP49" s="0"/>
+      <c r="AGQ49" s="0"/>
+      <c r="AGR49" s="0"/>
+      <c r="AGS49" s="0"/>
+      <c r="AGT49" s="0"/>
+      <c r="AGU49" s="0"/>
+      <c r="AGV49" s="0"/>
+      <c r="AGW49" s="0"/>
+      <c r="AGX49" s="0"/>
+      <c r="AGY49" s="0"/>
+      <c r="AGZ49" s="0"/>
+      <c r="AHA49" s="0"/>
+      <c r="AHB49" s="0"/>
+      <c r="AHC49" s="0"/>
+      <c r="AHD49" s="0"/>
+      <c r="AHE49" s="0"/>
+      <c r="AHF49" s="0"/>
+      <c r="AHG49" s="0"/>
+      <c r="AHH49" s="0"/>
+      <c r="AHI49" s="0"/>
+      <c r="AHJ49" s="0"/>
+      <c r="AHK49" s="0"/>
+      <c r="AHL49" s="0"/>
+      <c r="AHM49" s="0"/>
+      <c r="AHN49" s="0"/>
+      <c r="AHO49" s="0"/>
+      <c r="AHP49" s="0"/>
+      <c r="AHQ49" s="0"/>
+      <c r="AHR49" s="0"/>
+      <c r="AHS49" s="0"/>
+      <c r="AHT49" s="0"/>
+      <c r="AHU49" s="0"/>
+      <c r="AHV49" s="0"/>
+      <c r="AHW49" s="0"/>
+      <c r="AHX49" s="0"/>
+      <c r="AHY49" s="0"/>
+      <c r="AHZ49" s="0"/>
+      <c r="AIA49" s="0"/>
+      <c r="AIB49" s="0"/>
+      <c r="AIC49" s="0"/>
+      <c r="AID49" s="0"/>
+      <c r="AIE49" s="0"/>
+      <c r="AIF49" s="0"/>
+      <c r="AIG49" s="0"/>
+      <c r="AIH49" s="0"/>
+      <c r="AII49" s="0"/>
+      <c r="AIJ49" s="0"/>
+      <c r="AIK49" s="0"/>
+      <c r="AIL49" s="0"/>
+      <c r="AIM49" s="0"/>
+      <c r="AIN49" s="0"/>
+      <c r="AIO49" s="0"/>
+      <c r="AIP49" s="0"/>
+      <c r="AIQ49" s="0"/>
+      <c r="AIR49" s="0"/>
+      <c r="AIS49" s="0"/>
+      <c r="AIT49" s="0"/>
+      <c r="AIU49" s="0"/>
+      <c r="AIV49" s="0"/>
+      <c r="AIW49" s="0"/>
+      <c r="AIX49" s="0"/>
+      <c r="AIY49" s="0"/>
+      <c r="AIZ49" s="0"/>
+      <c r="AJA49" s="0"/>
+      <c r="AJB49" s="0"/>
+      <c r="AJC49" s="0"/>
+      <c r="AJD49" s="0"/>
+      <c r="AJE49" s="0"/>
+      <c r="AJF49" s="0"/>
+      <c r="AJG49" s="0"/>
+      <c r="AJH49" s="0"/>
+      <c r="AJI49" s="0"/>
+      <c r="AJJ49" s="0"/>
+      <c r="AJK49" s="0"/>
+      <c r="AJL49" s="0"/>
+      <c r="AJM49" s="0"/>
+      <c r="AJN49" s="0"/>
+      <c r="AJO49" s="0"/>
+      <c r="AJP49" s="0"/>
+      <c r="AJQ49" s="0"/>
+      <c r="AJR49" s="0"/>
+      <c r="AJS49" s="0"/>
+      <c r="AJT49" s="0"/>
+      <c r="AJU49" s="0"/>
+      <c r="AJV49" s="0"/>
+      <c r="AJW49" s="0"/>
+      <c r="AJX49" s="0"/>
+      <c r="AJY49" s="0"/>
+      <c r="AJZ49" s="0"/>
+      <c r="AKA49" s="0"/>
+      <c r="AKB49" s="0"/>
+      <c r="AKC49" s="0"/>
+      <c r="AKD49" s="0"/>
+      <c r="AKE49" s="0"/>
+      <c r="AKF49" s="0"/>
+      <c r="AKG49" s="0"/>
+      <c r="AKH49" s="0"/>
+      <c r="AKI49" s="0"/>
+      <c r="AKJ49" s="0"/>
+      <c r="AKK49" s="0"/>
+      <c r="AKL49" s="0"/>
+      <c r="AKM49" s="0"/>
+      <c r="AKN49" s="0"/>
+      <c r="AKO49" s="0"/>
+      <c r="AKP49" s="0"/>
+      <c r="AKQ49" s="0"/>
+      <c r="AKR49" s="0"/>
+      <c r="AKS49" s="0"/>
+      <c r="AKT49" s="0"/>
+      <c r="AKU49" s="0"/>
+      <c r="AKV49" s="0"/>
+      <c r="AKW49" s="0"/>
+      <c r="AKX49" s="0"/>
+      <c r="AKY49" s="0"/>
+      <c r="AKZ49" s="0"/>
+      <c r="ALA49" s="0"/>
+      <c r="ALB49" s="0"/>
+      <c r="ALC49" s="0"/>
+      <c r="ALD49" s="0"/>
+      <c r="ALE49" s="0"/>
+      <c r="ALF49" s="0"/>
+      <c r="ALG49" s="0"/>
+      <c r="ALH49" s="0"/>
+      <c r="ALI49" s="0"/>
+      <c r="ALJ49" s="0"/>
+      <c r="ALK49" s="0"/>
+      <c r="ALL49" s="0"/>
+      <c r="ALM49" s="0"/>
+      <c r="ALN49" s="0"/>
+      <c r="ALO49" s="0"/>
+      <c r="ALP49" s="0"/>
+      <c r="ALQ49" s="0"/>
+      <c r="ALR49" s="0"/>
+      <c r="ALS49" s="0"/>
+      <c r="ALT49" s="0"/>
+      <c r="ALU49" s="0"/>
+      <c r="ALV49" s="0"/>
+      <c r="ALW49" s="0"/>
+      <c r="ALX49" s="0"/>
+      <c r="ALY49" s="0"/>
+      <c r="ALZ49" s="0"/>
+      <c r="AMA49" s="0"/>
+      <c r="AMB49" s="0"/>
+      <c r="AMC49" s="0"/>
+      <c r="AMD49" s="0"/>
+      <c r="AME49" s="0"/>
+      <c r="AMF49" s="0"/>
+      <c r="AMG49" s="0"/>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C50" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AMH49" s="8"/>
-      <c r="AMI49" s="8"/>
-      <c r="AMJ49" s="8"/>
+      <c r="AMH50" s="9"/>
+      <c r="AMI50" s="9"/>
+      <c r="AMJ50" s="9"/>
     </row>
-    <row r="50" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="51" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C51" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AMH50" s="8"/>
-      <c r="AMI50" s="8"/>
-      <c r="AMJ50" s="8"/>
-    </row>
-    <row r="51" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AMH51" s="8"/>
-      <c r="AMI51" s="8"/>
-      <c r="AMJ51" s="8"/>
+      <c r="AMH51" s="9"/>
+      <c r="AMI51" s="9"/>
+      <c r="AMJ51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AMH52" s="11"/>
+      <c r="AMI52" s="11"/>
+      <c r="AMJ52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
+    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.333</v>
+        <v>0.6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47469,16 +47490,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47486,16 +47507,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.333</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47503,16 +47524,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47520,16 +47541,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47537,16 +47558,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47554,16 +47575,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47571,84 +47592,84 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.667</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.46</v>
+        <v>0.667</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.587</v>
+        <v>0.54</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.587</v>
+        <v>0.46</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47656,16 +47677,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.587</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47673,16 +47694,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.587</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47690,16 +47711,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.413</v>
+        <v>0.587</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47707,16 +47728,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.413</v>
+        <v>0.587</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47724,7 +47745,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.413</v>
@@ -47733,7 +47754,7 @@
         <v>108</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47741,16 +47762,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.413</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47758,84 +47779,84 @@
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.413</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>0.3825</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.6175</v>
+        <v>0.413</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.6559</v>
+        <v>0.3825</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.6559</v>
+        <v>0.6175</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47843,16 +47864,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.6559</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47860,16 +47881,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.6559</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47877,16 +47898,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.1376</v>
+        <v>0.6559</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47894,16 +47915,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.1376</v>
+        <v>0.6559</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47911,16 +47932,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>0.1376</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47928,7 +47949,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>0.1376</v>
@@ -47937,7 +47958,7 @@
         <v>124</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47945,7 +47966,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>0.1376</v>
@@ -47962,16 +47983,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.2065</v>
+        <v>0.1376</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47979,16 +48000,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.2065</v>
+        <v>0.1376</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47996,16 +48017,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48013,16 +48034,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48030,16 +48051,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48047,16 +48068,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48064,16 +48085,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48081,16 +48102,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48098,84 +48119,84 @@
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0.2065</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.5</v>
+        <v>0.2065</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.5</v>
+        <v>0.2065</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.096</v>
+        <v>0.5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.096</v>
+        <v>0.5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48183,16 +48204,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0.096</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48200,16 +48221,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0.096</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48217,16 +48238,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.904</v>
+        <v>0.096</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48234,16 +48255,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.904</v>
+        <v>0.096</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48251,16 +48272,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0.904</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48268,7 +48289,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0.904</v>
@@ -48277,7 +48298,7 @@
         <v>147</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48285,7 +48306,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0.904</v>
@@ -48294,7 +48315,7 @@
         <v>148</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48302,16 +48323,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0.904</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48319,7 +48340,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0.904</v>
@@ -48328,7 +48349,7 @@
         <v>151</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48336,16 +48357,50 @@
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0.904</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E107" s="1" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>154</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -48366,18 +48421,18 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48404,7 +48459,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="12" t="n">
         <v>0.33</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -48421,7 +48476,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="12" t="n">
         <v>0.67</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -48438,7 +48493,7 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -48455,7 +48510,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -48472,7 +48527,7 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -48489,7 +48544,7 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -48506,7 +48561,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -48523,7 +48578,7 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -48540,7 +48595,7 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -48557,7 +48612,7 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -48574,7 +48629,7 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -48591,7 +48646,7 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -48608,7 +48663,7 @@
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -48625,7 +48680,7 @@
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -48642,7 +48697,7 @@
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -48659,7 +48714,7 @@
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -48676,7 +48731,7 @@
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -48693,7 +48748,7 @@
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -48710,7 +48765,7 @@
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -48727,7 +48782,7 @@
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -48744,7 +48799,7 @@
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -48761,7 +48816,7 @@
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -48776,13 +48831,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="n">
         <v>0.35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
@@ -48793,13 +48848,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12" t="n">
         <v>0.65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -48810,13 +48865,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
@@ -48827,13 +48882,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
@@ -48844,13 +48899,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C28" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
@@ -48861,13 +48916,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C29" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>21</v>
@@ -48878,13 +48933,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>23</v>
@@ -48895,13 +48950,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C31" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
@@ -48912,13 +48967,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>27</v>
@@ -48929,13 +48984,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C33" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
@@ -48946,13 +49001,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C34" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
@@ -48963,13 +49018,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C35" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -48980,13 +49035,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C36" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>35</v>
@@ -48997,13 +49052,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C37" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>37</v>
@@ -49014,13 +49069,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C38" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -49031,13 +49086,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C39" s="12" t="n">
         <v>0.29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>41</v>
@@ -49048,13 +49103,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C40" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>43</v>
@@ -49065,13 +49120,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C41" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>45</v>
@@ -49082,13 +49137,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C42" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>47</v>
@@ -49099,13 +49154,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>49</v>
@@ -49116,13 +49171,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C44" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -49133,13 +49188,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C45" s="12" t="n">
         <v>0.355</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>53</v>
@@ -49150,13 +49205,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="C46" s="12" t="n">
         <v>0.4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
@@ -49167,13 +49222,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="C47" s="12" t="n">
         <v>0.6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -49184,13 +49239,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C48" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>35</v>
@@ -49201,13 +49256,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C49" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>37</v>
@@ -49218,13 +49273,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C50" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>39</v>
@@ -49235,16 +49290,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="C51" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49252,16 +49307,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="C52" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49269,16 +49324,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="C53" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49286,16 +49341,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="C54" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49303,16 +49358,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="C55" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49320,16 +49375,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C56" s="5" t="n">
         <v>0.667</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49337,13 +49392,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C57" s="12" t="n">
         <v>0.4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>11</v>
@@ -49354,13 +49409,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="C58" s="12" t="n">
         <v>0.6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -49371,13 +49426,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="C59" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>35</v>
@@ -49388,13 +49443,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="C60" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>37</v>
@@ -49405,13 +49460,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="C61" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>39</v>
@@ -49422,16 +49477,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="C62" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49439,16 +49494,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C63" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49456,16 +49511,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C64" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49473,16 +49528,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C65" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49490,16 +49545,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C66" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49507,16 +49562,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C67" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49524,13 +49579,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="9" t="n">
+        <v>117</v>
+      </c>
+      <c r="C68" s="12" t="n">
         <v>0.4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
@@ -49541,13 +49596,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="C69" s="12" t="n">
         <v>0.6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -49558,13 +49613,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="C70" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>35</v>
@@ -49575,13 +49630,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="C71" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>37</v>
@@ -49592,13 +49647,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="C72" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>39</v>
@@ -49609,16 +49664,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="C73" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49626,16 +49681,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C74" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49643,16 +49698,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C75" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49660,16 +49715,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C76" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49677,16 +49732,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C77" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49694,16 +49749,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C78" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49711,13 +49766,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C79" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>43</v>
@@ -49728,13 +49783,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C80" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>45</v>
@@ -49745,13 +49800,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C81" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>47</v>
@@ -49762,13 +49817,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C82" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>49</v>
@@ -49779,13 +49834,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C83" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>51</v>
@@ -49796,13 +49851,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C84" s="12" t="n">
         <v>0.167</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>53</v>
@@ -49813,16 +49868,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C85" s="5" t="n">
         <v>0.167</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49830,16 +49885,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C86" s="5" t="n">
         <v>0.167</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49847,16 +49902,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C87" s="5" t="n">
         <v>0.167</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49864,13 +49919,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="C88" s="12" t="n">
         <v>0.4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>11</v>
@@ -49881,13 +49936,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="C89" s="12" t="n">
         <v>0.6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -49898,13 +49953,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C90" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>35</v>
@@ -49915,13 +49970,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C91" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>37</v>
@@ -49932,13 +49987,13 @@
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C92" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>39</v>
@@ -49949,16 +50004,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C93" s="12" t="n">
         <v>0.333</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49966,16 +50021,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C94" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49983,16 +50038,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C95" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50000,16 +50055,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C96" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50017,16 +50072,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C97" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50034,16 +50089,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C98" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50051,16 +50106,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C99" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50068,16 +50123,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C100" s="12" t="n">
         <v>0.667</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50085,16 +50140,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C101" s="5" t="n">
         <v>0.667</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - Contract Execution 2019.xlsx
@@ -717,7 +717,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -725,7 +725,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
@@ -806,8 +806,8 @@
   </sheetPr>
   <dimension ref="1:109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -47414,27 +47414,27 @@
       <c r="AMI51" s="9"/>
       <c r="AMJ51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="52" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AMH52" s="11"/>
-      <c r="AMI52" s="11"/>
-      <c r="AMJ52" s="11"/>
+      <c r="AMH52" s="9"/>
+      <c r="AMI52" s="9"/>
+      <c r="AMJ52" s="9"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -47450,6 +47450,9 @@
       <c r="E53" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="AMH53" s="11"/>
+      <c r="AMI53" s="11"/>
+      <c r="AMJ53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
@@ -48421,7 +48424,7 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
